--- a/Archivos/Excel/inventario.xlsx
+++ b/Archivos/Excel/inventario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,53 @@
           <t>precio</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>libres</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>en_taller</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>nuevas_entradas</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>wefwe</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>eww</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>200</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Archivos/Excel/inventario.xlsx
+++ b/Archivos/Excel/inventario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,19 +491,103 @@
           <t>eww</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>IOH</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>GI</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GMJ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FHM</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>FHM</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>54</v>
+      </c>
+      <c r="E4" t="n">
         <v>5</v>
       </c>
-      <c r="E2" t="n">
-        <v>200</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H4" t="n">
         <v>0</v>
       </c>
     </row>
